--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,59 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>userId</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>btc</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Influential Event</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FOMC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Associated Technology</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>blockchain</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -1,43 +1,430 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>btc</t>
+  </si>
+  <si>
+    <t>Influential Event</t>
+  </si>
+  <si>
+    <t>FOMC</t>
+  </si>
+  <si>
+    <t>test111</t>
+  </si>
+  <si>
+    <t>eth</t>
+  </si>
+  <si>
+    <t>Associated Technology</t>
+  </si>
+  <si>
+    <t>blockchain</t>
+  </si>
+  <si>
+    <t>Significant Related Persons</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +433,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,91 +1038,316 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>keyword</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>userId</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>btc</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Influential Event</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FOMC</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>test111</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Associated Technology</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>blockchain</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>test111</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -722,16 +722,18 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>btc</t>
+          <t>ftm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>12</v>
+          <t>Associated Technology</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>blockchain</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -747,11 +749,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>13</v>
+          <t>Significant Persons</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>elon musk</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -762,7 +766,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>btc</t>
+          <t>eth</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -770,8 +774,10 @@
           <t>Significant Related Persons</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>14</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vitalik Buterin</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -790,8 +796,10 @@
           <t>Significant Related Persons</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>15</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vip1</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -810,8 +818,10 @@
           <t>Significant Related Persons</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>16</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vip2</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -830,8 +840,10 @@
           <t>Significant Related Persons</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>17</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vip3</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -847,11 +859,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>18</v>
+          <t>Associated Technology</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>tech1</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -862,7 +876,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ftm</t>
+          <t>btc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -872,7 +886,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>blockchain</t>
+          <t>tech2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -884,17 +898,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Luna</t>
+          <t>btc</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Correlated Concept</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>btc</t>
+          <t>tech3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -911,37 +925,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Significant Persons</t>
+          <t>Correlated Concept</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>elon musk</t>
+          <t>concept1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>test111</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Significant Related Persons</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Vitalik Buterin</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
         <is>
           <t>test111</t>
         </is>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +766,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>eth</t>
+          <t>btc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vitalik Buterin</t>
+          <t>vip1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>vip1</t>
+          <t>vip2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>vip2</t>
+          <t>vip3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>vip3</t>
+          <t>tech1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>tech1</t>
+          <t>tech2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>tech2</t>
+          <t>tech3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
+          <t>Correlated Concept</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>tech3</t>
+          <t>concept1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -920,20 +920,108 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>btc</t>
+          <t>eth</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Correlated Concept</t>
+          <t>Significant Related Persons</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>concept1</t>
+          <t>VitalikButerin</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Significant Related Persons</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Significant Related Persons</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>brian_armstrong</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Significant Related Persons</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CoinDesk</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Significant Related Persons</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vip1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>test111</t>
         </is>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,10 +1018,54 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>vip1</t>
+          <t>WeekInEthNews</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Significant Related Persons</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CryptosisAI</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Significant Related Persons</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ETHNews_</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>test111</t>
         </is>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,6 +1071,138 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Associated Technology</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>smart contracts</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Associated Technology</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Serenity</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Associated Technology</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Casper</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Associated Technology</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>VDF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Associated Technology</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Beacon chain</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Associated Technology</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ERC</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,6 +1203,28 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Significant Related Persons</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ForbesCrypto</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,7 +952,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>brian_armstrong</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>brian_armstrong</t>
+          <t>CoinDesk</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CoinDesk</t>
+          <t>CryptosisAI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WeekInEthNews</t>
+          <t>smart contracts</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CryptosisAI</t>
+          <t>Serenity</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ETHNews_</t>
+          <t>Casper</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>smart contracts</t>
+          <t>VDF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Beacon chain</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Casper</t>
+          <t>ERC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1145,81 +1145,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
+          <t>Significant Related Persons</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>VDF</t>
+          <t>ForbesCrypto</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
-        <is>
-          <t>test111</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Associated Technology</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Beacon chain</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>test111</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Associated Technology</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>ERC</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>test111</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Significant Related Persons</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>ForbesCrypto</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
         <is>
           <t>test111</t>
         </is>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,6 +1159,50 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Correlated Concept</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Correlated Concept</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DeFi</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,6 +1203,28 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Influential Event</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>merge</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>userId</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>remark</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,28 +481,28 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>eth</t>
+          <t>btc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>blockchain</t>
-        </is>
+          <t>Significant Related Persons</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -511,13 +516,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -531,13 +537,14 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -551,13 +558,14 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -571,13 +579,14 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -591,13 +600,14 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,13 +621,14 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -631,13 +642,14 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -651,13 +663,14 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -671,13 +684,14 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -691,48 +705,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>btc</t>
+          <t>ftm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>18</v>
+          <t>Associated Technology</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>blockchain</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>test111</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ftm</t>
+          <t>btc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
+          <t>Significant Persons</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>blockchain</t>
+          <t>elon musk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -740,6 +758,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -749,12 +768,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Significant Persons</t>
+          <t>Significant Related Persons</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>elon musk</t>
+          <t>vip1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -762,6 +781,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -776,7 +796,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>vip1</t>
+          <t>vip2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -784,6 +804,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -798,7 +819,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>vip2</t>
+          <t>vip3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -806,6 +827,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -815,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>vip3</t>
+          <t>tech1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -828,6 +850,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -842,7 +865,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tech1</t>
+          <t>tech2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -850,6 +873,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -864,7 +888,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>tech2</t>
+          <t>tech3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -872,6 +896,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -881,12 +906,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
+          <t>Correlated Concept</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>tech3</t>
+          <t>concept1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -894,21 +919,22 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>btc</t>
+          <t>eth</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Correlated Concept</t>
+          <t>Significant Related Persons</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>concept1</t>
+          <t>VitalikButerin</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -916,6 +942,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -930,7 +957,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VitalikButerin</t>
+          <t>brian_armstrong</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -938,6 +965,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -952,7 +980,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brian_armstrong</t>
+          <t>CoinDesk</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -960,6 +988,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -974,7 +1003,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CoinDesk</t>
+          <t>CryptosisAI</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -982,6 +1011,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -991,12 +1021,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CryptosisAI</t>
+          <t>smart contracts</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1004,6 +1034,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1018,7 +1049,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>smart contracts</t>
+          <t>Serenity</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1026,6 +1057,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1040,7 +1072,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Casper</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1048,6 +1080,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1062,7 +1095,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Casper</t>
+          <t>VDF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1070,6 +1103,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1084,7 +1118,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>VDF</t>
+          <t>Beacon chain</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1092,6 +1126,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1106,7 +1141,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Beacon chain</t>
+          <t>ERC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1114,6 +1149,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1123,12 +1159,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
+          <t>Significant Related Persons</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ERC</t>
+          <t>ForbesCrypto</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1136,6 +1172,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1145,12 +1182,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Correlated Concept</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ForbesCrypto</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1158,6 +1195,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1172,7 +1210,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>DeFi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1180,6 +1218,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1189,12 +1228,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Correlated Concept</t>
+          <t>Influential Event</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DeFi</t>
+          <t>merge</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1202,6 +1241,7 @@
           <t>test111</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1211,17 +1251,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Influential Event</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>merge</t>
+          <t>blockchain</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>test111</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>The core technology of Ethereum</t>
         </is>
       </c>
     </row>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>VitalikButerin</t>
+          <t>brian_armstrong</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brian_armstrong</t>
+          <t>CoinDesk</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CoinDesk</t>
+          <t>CryptosisAI</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CryptosisAI</t>
+          <t>Serenity</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>smart contracts</t>
+          <t>Casper</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>VDF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Casper</t>
+          <t>Beacon chain</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VDF</t>
+          <t>ERC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
+          <t>Significant Related Persons</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Beacon chain</t>
+          <t>ForbesCrypto</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
+          <t>Influential Event</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ERC</t>
+          <t>merge</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ForbesCrypto</t>
+          <t>blockchain</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1172,7 +1172,11 @@
           <t>test111</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>The core technology of Ethereum</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1182,12 +1186,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Correlated Concept</t>
+          <t>Significant Related Persons</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>VitalikButerin</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1195,7 +1199,11 @@
           <t>test111</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Russian-born Canadian programmer and writer who is best known as one of the co-founders of Ethereum</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1205,12 +1213,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Correlated Concept</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DeFi</t>
+          <t>smart contracts</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1218,7 +1226,11 @@
           <t>test111</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A smart contract, like any contract, establishes the terms of an agreement. But unlike a traditional contract, a smart contract’s terms are executed as code running on a blockchain like Ethereum. Smart contracts allow developers to build apps that take advantage of blockchain security, reliability, and accessibility while offering sophisticated peer-to-peer functionality — everything from loans and insurance to logistics and gaming.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1228,12 +1240,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Influential Event</t>
+          <t>Correlated Concept</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>merge</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1241,7 +1253,11 @@
           <t>test111</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ETC is the native cryptocurrency of Ethereum Classic, a blockchain project that was created in 2016 when Ethereum’s blockchain split into two separate chains following a disagreement among members of its community.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1251,12 +1267,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
+          <t>Correlated Concept</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>blockchain</t>
+          <t>DeFi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1266,7 +1282,37 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>The core technology of Ethereum</t>
+          <t>Decentralized finance (DeFi) is an emerging financial technology based on secure distributed ledgers similar to those used by cryptocurrencies. The system removes the control banks and institutions have on money, financial products, and financial services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Correlated Concept</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>merge</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Eventually the current Ethereum Mainnet will "merge" with the beacon chain proof-of-stake system.
+This will mark the end of proof-of-work for Ethereum, and the full transition to proof-of-stake.
+This is planned to precede the roll out of shard chains.
+We formerly referred to this as "the docking."</t>
         </is>
       </c>
     </row>

--- a/v 2.0/tweetsa_user_data.xlsx
+++ b/v 2.0/tweetsa_user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,7 +957,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CoinDesk</t>
+          <t>CryptosisAI</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -975,12 +975,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CryptosisAI</t>
+          <t>Serenity</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Casper</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Casper</t>
+          <t>VDF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VDF</t>
+          <t>Beacon chain</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Beacon chain</t>
+          <t>ERC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1090,12 +1090,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
+          <t>Significant Related Persons</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ERC</t>
+          <t>ForbesCrypto</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Influential Event</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ForbesCrypto</t>
+          <t>merge</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Influential Event</t>
+          <t>Associated Technology</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>merge</t>
+          <t>blockchain</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1149,7 +1149,11 @@
           <t>test111</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>The core technology of Ethereum</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1164,7 +1168,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>blockchain</t>
+          <t>smart contracts</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1174,7 +1178,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The core technology of Ethereum</t>
+          <t>A smart contract, like any contract, establishes the terms of an agreement. But unlike a traditional contract, a smart contract’s terms are executed as code running on a blockchain like Ethereum. Smart contracts allow developers to build apps that take advantage of blockchain security, reliability, and accessibility while offering sophisticated peer-to-peer functionality — everything from loans and insurance to logistics and gaming.</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1190,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Significant Related Persons</t>
+          <t>Correlated Concept</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>VitalikButerin</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1201,7 +1205,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Russian-born Canadian programmer and writer who is best known as one of the co-founders of Ethereum</t>
+          <t>ETC is the native cryptocurrency of Ethereum Classic, a blockchain project that was created in 2016 when Ethereum’s blockchain split into two separate chains following a disagreement among members of its community.</t>
         </is>
       </c>
     </row>
@@ -1213,12 +1217,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Associated Technology</t>
+          <t>Correlated Concept</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>smart contracts</t>
+          <t>DeFi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1228,7 +1232,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A smart contract, like any contract, establishes the terms of an agreement. But unlike a traditional contract, a smart contract’s terms are executed as code running on a blockchain like Ethereum. Smart contracts allow developers to build apps that take advantage of blockchain security, reliability, and accessibility while offering sophisticated peer-to-peer functionality — everything from loans and insurance to logistics and gaming.</t>
+          <t>Decentralized finance (DeFi) is an emerging financial technology based on secure distributed ledgers similar to those used by cryptocurrencies. The system removes the control banks and institutions have on money, financial products, and financial services.</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1249,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>merge</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1254,60 +1258,6 @@
         </is>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>ETC is the native cryptocurrency of Ethereum Classic, a blockchain project that was created in 2016 when Ethereum’s blockchain split into two separate chains following a disagreement among members of its community.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Correlated Concept</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>DeFi</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>test111</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Decentralized finance (DeFi) is an emerging financial technology based on secure distributed ledgers similar to those used by cryptocurrencies. The system removes the control banks and institutions have on money, financial products, and financial services.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Correlated Concept</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>merge</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>test111</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>Eventually the current Ethereum Mainnet will "merge" with the beacon chain proof-of-stake system.
 This will mark the end of proof-of-work for Ethereum, and the full transition to proof-of-stake.
